--- a/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>HPQ</t>
   </si>
@@ -1108,8 +1108,8 @@
       <c r="I21" s="3">
         <v>8364000</v>
       </c>
-      <c r="J21" s="3">
-        <v>11547000</v>
+      <c r="J21" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K21" s="3">
         <v>-6838000</v>
@@ -2924,8 +2924,8 @@
       <c r="I83" s="3">
         <v>4334000</v>
       </c>
-      <c r="J83" s="3">
-        <v>4611000</v>
+      <c r="J83" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K83" s="3">
         <v>5095000</v>
@@ -3269,8 +3269,8 @@
       <c r="I94" s="3">
         <v>-2792000</v>
       </c>
-      <c r="J94" s="3">
-        <v>-2803000</v>
+      <c r="J94" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K94" s="3">
         <v>-3453000</v>
@@ -3449,8 +3449,8 @@
       <c r="I100" s="3">
         <v>-6571000</v>
       </c>
-      <c r="J100" s="3">
-        <v>-7943000</v>
+      <c r="J100" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K100" s="3">
         <v>-3860000</v>
@@ -3482,8 +3482,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>HPQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43404</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43039</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42674</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42308</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41943</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41578</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41213</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40847</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>56639000</v>
+      </c>
+      <c r="E8" s="3">
         <v>58756000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>58472000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>52056000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>48238000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>51463000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>56651000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>112298000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>120357000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>127245000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>46202000</v>
+      </c>
+      <c r="E9" s="3">
         <v>47586000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>47803000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>42478000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39240000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>120120000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>130270000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>86380000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>92385000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>97418000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10437000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11170000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10669000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9578000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8998000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-68657000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-73619000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25918000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27972000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29827000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1478000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1499000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1404000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1190000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1209000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1191000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1298000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3135000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3399000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3254000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E14" s="3">
         <v>310000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>388000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>492000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>384000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1491000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>187000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1012000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20346000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1712000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E15" s="3">
         <v>116000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>80000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>16000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>102000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>129000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1373000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1784000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1607000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>53217000</v>
+      </c>
+      <c r="E17" s="3">
         <v>54879000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54767000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48688000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44689000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>47543000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52395000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>105167000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>131414000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117568000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3422000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3877000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3705000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3368000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3549000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3920000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4256000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7131000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11057000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9677000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1112000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-380000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>217000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>485000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-221000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-226000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-195000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-876000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-695000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4259000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3509000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3853000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3939000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4366000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7760000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8364000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6838000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13966000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E22" s="3">
         <v>242000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>312000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>309000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>273000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>167000</v>
       </c>
       <c r="I22" s="3">
         <v>167000</v>
       </c>
       <c r="J22" s="3">
+        <v>167000</v>
+      </c>
+      <c r="K22" s="3">
         <v>426000</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3231000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2523000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3013000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3276000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3761000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3532000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3863000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6510000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11933000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8982000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-551000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>150000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>750000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1095000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-186000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>939000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1397000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>717000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1908000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2844000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3074000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2863000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2526000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2666000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3718000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2924000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5113000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12650000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7074000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2844000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3074000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2863000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2526000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2666000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3718000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2924000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5113000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12650000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7074000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,32 +1405,35 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>78000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>2464000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-170000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>836000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>2089000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>17</v>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1112000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>380000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-217000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-485000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>221000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>226000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>195000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>876000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>695000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2844000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3152000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5327000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2526000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2496000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4554000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5013000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5113000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12650000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7074000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2844000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3152000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5327000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2526000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2496000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4554000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5013000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5113000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12650000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7074000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43404</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43039</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42674</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42308</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41943</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41578</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41213</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40847</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,55 +1733,59 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4864000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4537000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5166000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6997000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6288000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7584000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15133000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12163000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11301000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8043000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>274000</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>711000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1149000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>17</v>
@@ -1713,240 +1802,264 @@
       <c r="L42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8443000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8939000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8003000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7162000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6609000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10001000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21325000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24024000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25506000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29790000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5963000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5734000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6062000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5786000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4484000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4288000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6415000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6046000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6317000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7490000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1104000</v>
+      </c>
+      <c r="E45" s="3">
         <v>967000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1445000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1224000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1087000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32832000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7272000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8131000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11243000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8860000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20648000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20177000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21387000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22318000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18468000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>51787000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>50145000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>50364000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>50637000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>51021000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="3">
         <v>144000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1042000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1793000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1607000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3724000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4450000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5274000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5924000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5916000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3734000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2794000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2198000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1878000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1736000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10664000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11340000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11463000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11954000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12292000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6920000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7033000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5968000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>5622000</v>
       </c>
       <c r="G49" s="3">
         <v>5622000</v>
       </c>
       <c r="H49" s="3">
+        <v>5622000</v>
+      </c>
+      <c r="I49" s="3">
         <v>7694000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>33267000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>34293000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40563000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>51344000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3379000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3319000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4027000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1302000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1570000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>47923000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4004000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4282000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4669000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5457000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34681000</v>
+      </c>
+      <c r="E54" s="3">
         <v>33467000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34622000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32913000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28987000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>106882000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>103206000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>105676000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108768000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>129517000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14704000</v>
+      </c>
+      <c r="E57" s="3">
         <v>14793000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14816000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13279000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11103000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10194000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15903000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14019000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13350000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14750000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>674000</v>
+      </c>
+      <c r="E58" s="3">
         <v>357000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1463000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1072000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>78000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2233000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3486000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5979000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6647000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8083000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10842000</v>
+      </c>
+      <c r="E59" s="3">
         <v>10143000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8852000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8061000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7627000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30492000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24346000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25523000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32509000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27609000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26220000</v>
+      </c>
+      <c r="E60" s="3">
         <v>25293000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25131000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22412000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18808000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42191000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>43735000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>45521000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46666000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50442000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5543000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4780000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4524000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6747000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6735000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6677000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16039000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16608000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21789000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22551000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5146000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4587000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5606000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7162000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7333000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7414000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16305000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15891000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20861000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17520000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36909000</v>
+      </c>
+      <c r="E66" s="3">
         <v>34660000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35261000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36321000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32876000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>79114000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>76475000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78407000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86332000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90892000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1961000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-818000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-473000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2386000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3498000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>32089000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>29164000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>25563000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21521000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35266000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2228000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1193000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-639000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3408000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3889000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27768000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26731000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27269000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22436000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38625000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43404</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43039</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42674</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42308</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41943</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41578</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41213</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40847</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2844000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3152000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5327000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2526000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2496000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4554000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5013000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5113000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12650000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7074000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>789000</v>
+      </c>
+      <c r="E83" s="3">
         <v>744000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>528000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>354000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>332000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4061000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4334000</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5095000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4984000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4316000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4654000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4528000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3677000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3252000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7026000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12333000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11608000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10571000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12639000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-580000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-671000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-546000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-402000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-433000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3603000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3853000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3199000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3706000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4539000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1016000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-438000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-716000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>48000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5534000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2792000</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3453000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13959000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-997000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-970000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-899000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-894000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-858000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1250000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1184000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1105000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1015000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-844000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,42 +3667,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2973000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4845000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5643000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1251000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14445000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>808000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6571000</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3860000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1566000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3482,49 +3730,55 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-629000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>709000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11145000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2300000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2970000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>862000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3258000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2886000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>HPQ</t>
   </si>
@@ -1144,8 +1144,8 @@
       <c r="I21" s="3">
         <v>7760000</v>
       </c>
-      <c r="J21" s="3">
-        <v>8364000</v>
+      <c r="J21" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4299000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4864000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4537000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5166000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6997000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6288000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7584000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>15133000</v>
       </c>
       <c r="K41" s="3">
         <v>12163000</v>
@@ -1775,20 +1775,20 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="3">
         <v>274000</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>711000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1149000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>17</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5511000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8443000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8939000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8003000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7162000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6609000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10001000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>21325000</v>
       </c>
       <c r="K43" s="3">
         <v>24024000</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7930000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5963000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5734000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6062000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5786000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4484000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4288000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>6415000</v>
       </c>
       <c r="K44" s="3">
         <v>6046000</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4430000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1104000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>967000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1445000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1224000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1087000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32832000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>7272000</v>
       </c>
       <c r="K45" s="3">
         <v>8131000</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22170000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20648000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20177000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21387000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22318000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18468000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>51787000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>50145000</v>
       </c>
       <c r="K46" s="3">
         <v>50364000</v>
@@ -1958,23 +1958,23 @@
       <c r="D47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="3">
         <v>144000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1042000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1793000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1607000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3724000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>4450000</v>
       </c>
       <c r="K47" s="3">
         <v>5274000</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2546000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3734000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2794000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2198000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1878000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1736000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10664000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>11340000</v>
       </c>
       <c r="K48" s="3">
         <v>11463000</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6803000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6920000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7033000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5968000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>5622000</v>
       </c>
       <c r="H49" s="3">
         <v>5622000</v>
       </c>
       <c r="I49" s="3">
+        <v>5622000</v>
+      </c>
+      <c r="J49" s="3">
         <v>7694000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>33267000</v>
       </c>
       <c r="K49" s="3">
         <v>34293000</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7091000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3379000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3319000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4027000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1302000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1570000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>47923000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>4004000</v>
       </c>
       <c r="K52" s="3">
         <v>4282000</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38610000</v>
+      </c>
+      <c r="E54" s="3">
         <v>34681000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33467000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34622000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32913000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28987000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>106882000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>103206000</v>
       </c>
       <c r="K54" s="3">
         <v>105676000</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16075000</v>
+      </c>
+      <c r="E57" s="3">
         <v>14704000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14793000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14816000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13279000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11103000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10194000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>15903000</v>
       </c>
       <c r="K57" s="3">
         <v>14019000</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1106000</v>
+      </c>
+      <c r="E58" s="3">
         <v>674000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>357000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1463000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1072000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>78000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2233000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3486000</v>
       </c>
       <c r="K58" s="3">
         <v>5979000</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11915000</v>
+      </c>
+      <c r="E59" s="3">
         <v>10842000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10143000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8852000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8061000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7627000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>30492000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>24346000</v>
       </c>
       <c r="K59" s="3">
         <v>25523000</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29096000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26220000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25293000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25131000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22412000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18808000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42191000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>43735000</v>
       </c>
       <c r="K60" s="3">
         <v>45521000</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6386000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5543000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4780000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4524000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6747000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6735000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6677000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>16039000</v>
       </c>
       <c r="K61" s="3">
         <v>16608000</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4778000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5146000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4587000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5606000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7162000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7333000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7414000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>16305000</v>
       </c>
       <c r="K62" s="3">
         <v>15891000</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40260000</v>
+      </c>
+      <c r="E66" s="3">
         <v>36909000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34660000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35261000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>36321000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32876000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>79114000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>76475000</v>
       </c>
       <c r="K66" s="3">
         <v>78407000</v>
@@ -2795,26 +2795,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1961000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-818000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-473000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2386000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3498000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>32089000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>29164000</v>
       </c>
       <c r="K72" s="3">
         <v>25563000</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1650000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2228000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1193000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-639000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3408000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3889000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27768000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>26731000</v>
       </c>
       <c r="K76" s="3">
         <v>27269000</v>
@@ -3122,8 +3122,8 @@
       <c r="I83" s="3">
         <v>4061000</v>
       </c>
-      <c r="J83" s="3">
-        <v>4334000</v>
+      <c r="J83" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>17</v>
@@ -3498,8 +3498,8 @@
       <c r="I94" s="3">
         <v>-5534000</v>
       </c>
-      <c r="J94" s="3">
-        <v>-2792000</v>
+      <c r="J94" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>17</v>
@@ -3694,8 +3694,8 @@
       <c r="I100" s="3">
         <v>808000</v>
       </c>
-      <c r="J100" s="3">
-        <v>-6571000</v>
+      <c r="J100" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>17</v>
@@ -3730,8 +3730,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>17</v>

--- a/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43404</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43039</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42674</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42308</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41943</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41578</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41213</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40847</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>63487000</v>
+      </c>
+      <c r="E8" s="3">
         <v>56639000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>58756000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>58472000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>52056000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>48238000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>51463000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>56651000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>112298000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>120357000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>127245000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>50070000</v>
+      </c>
+      <c r="E9" s="3">
         <v>46202000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>47586000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47803000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>42478000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39240000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>120120000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>130270000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>86380000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>92385000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>97418000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13417000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10437000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11170000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10669000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9578000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8998000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-68657000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-73619000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25918000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27972000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29827000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +852,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1907000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1478000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1499000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1404000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1190000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1209000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1191000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1298000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3135000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3399000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3254000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,81 +927,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1975000</v>
+      </c>
+      <c r="E14" s="3">
         <v>518000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>310000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>388000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>492000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>384000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1491000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>187000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1012000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20346000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1712000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E15" s="3">
         <v>113000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>116000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>80000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>16000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>102000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>129000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1373000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1784000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1607000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>55897000</v>
+      </c>
+      <c r="E17" s="3">
         <v>53217000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54879000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>54767000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48688000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44689000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>47543000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>52395000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>105167000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>131414000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117568000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>7590000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3422000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3877000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3705000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3368000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3549000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3920000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4256000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7131000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11057000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9677000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E20" s="3">
         <v>48000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1112000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-380000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>217000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>485000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-221000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-226000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-195000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-876000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-695000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>8550000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4259000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3509000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3853000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3939000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4366000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7760000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="3">
         <v>-6838000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13966000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E22" s="3">
         <v>239000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>242000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>312000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>309000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>273000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>167000</v>
       </c>
       <c r="J22" s="3">
         <v>167000</v>
       </c>
       <c r="K22" s="3">
+        <v>167000</v>
+      </c>
+      <c r="L22" s="3">
         <v>426000</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7511000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3231000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2523000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3013000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3276000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3761000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3532000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3863000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6510000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11933000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8982000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E24" s="3">
         <v>387000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-551000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>150000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>750000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1095000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-186000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>939000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1397000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>717000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1908000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6503000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2844000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3074000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2863000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2526000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2666000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3718000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2924000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5113000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12650000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7074000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6503000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2844000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3074000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2863000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2526000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2666000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3718000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2924000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5113000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12650000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7074000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,35 +1465,38 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>78000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>2464000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-170000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>836000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2089000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>17</v>
@@ -1444,9 +1504,12 @@
       <c r="M29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-175000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-48000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1112000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>380000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-217000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-485000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>221000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>226000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>195000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>876000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>695000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6503000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2844000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3152000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5327000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2526000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2496000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4554000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5013000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5113000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12650000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7074000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6503000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2844000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3152000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5327000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2526000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2496000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4554000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5013000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5113000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12650000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7074000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43404</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43039</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42674</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42308</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41943</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41578</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41213</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40847</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,8 +1819,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1761,22 +1847,25 @@
         <v>7584000</v>
       </c>
       <c r="K41" s="3">
+        <v>7584000</v>
+      </c>
+      <c r="L41" s="3">
         <v>12163000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11301000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8043000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>17</v>
+      <c r="D42" s="3">
+        <v>5000</v>
       </c>
       <c r="E42" s="3">
         <v>274000</v>
@@ -1805,14 +1894,17 @@
       <c r="M42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5511000</v>
+        <v>8849000</v>
       </c>
       <c r="E43" s="3">
         <v>8443000</v>
@@ -1833,17 +1925,20 @@
         <v>10001000</v>
       </c>
       <c r="K43" s="3">
+        <v>10001000</v>
+      </c>
+      <c r="L43" s="3">
         <v>24024000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25506000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29790000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1869,22 +1964,25 @@
         <v>4288000</v>
       </c>
       <c r="K44" s="3">
+        <v>4288000</v>
+      </c>
+      <c r="L44" s="3">
         <v>6046000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6317000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7490000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4430000</v>
+        <v>1087000</v>
       </c>
       <c r="E45" s="3">
         <v>1104000</v>
@@ -1905,17 +2003,20 @@
         <v>32832000</v>
       </c>
       <c r="K45" s="3">
+        <v>32832000</v>
+      </c>
+      <c r="L45" s="3">
         <v>8131000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11243000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8860000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1941,17 +2042,20 @@
         <v>51787000</v>
       </c>
       <c r="K46" s="3">
+        <v>51787000</v>
+      </c>
+      <c r="L46" s="3">
         <v>50364000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>50637000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>51021000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1977,22 +2081,25 @@
         <v>3724000</v>
       </c>
       <c r="K47" s="3">
+        <v>3724000</v>
+      </c>
+      <c r="L47" s="3">
         <v>5274000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5924000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5916000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2546000</v>
+        <v>3738000</v>
       </c>
       <c r="E48" s="3">
         <v>3734000</v>
@@ -2013,22 +2120,25 @@
         <v>10664000</v>
       </c>
       <c r="K48" s="3">
+        <v>10664000</v>
+      </c>
+      <c r="L48" s="3">
         <v>11463000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11954000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12292000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6803000</v>
+        <v>7587000</v>
       </c>
       <c r="E49" s="3">
         <v>6920000</v>
@@ -2049,17 +2159,20 @@
         <v>7694000</v>
       </c>
       <c r="K49" s="3">
+        <v>7694000</v>
+      </c>
+      <c r="L49" s="3">
         <v>34293000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40563000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>51344000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,14 +2245,17 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7091000</v>
+        <v>5115000</v>
       </c>
       <c r="E52" s="3">
         <v>3379000</v>
@@ -2157,17 +2276,20 @@
         <v>47923000</v>
       </c>
       <c r="K52" s="3">
+        <v>47923000</v>
+      </c>
+      <c r="L52" s="3">
         <v>4282000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4669000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5457000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,9 +2323,12 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2229,17 +2354,20 @@
         <v>106882000</v>
       </c>
       <c r="K54" s="3">
+        <v>106882000</v>
+      </c>
+      <c r="L54" s="3">
         <v>105676000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108768000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>129517000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,8 +2399,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2297,17 +2427,20 @@
         <v>10194000</v>
       </c>
       <c r="K57" s="3">
+        <v>10194000</v>
+      </c>
+      <c r="L57" s="3">
         <v>14019000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13350000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14750000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2333,17 +2466,20 @@
         <v>2233000</v>
       </c>
       <c r="K58" s="3">
+        <v>2233000</v>
+      </c>
+      <c r="L58" s="3">
         <v>5979000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6647000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8083000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2369,17 +2505,20 @@
         <v>30492000</v>
       </c>
       <c r="K59" s="3">
+        <v>30492000</v>
+      </c>
+      <c r="L59" s="3">
         <v>25523000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32509000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27609000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2405,17 +2544,20 @@
         <v>42191000</v>
       </c>
       <c r="K60" s="3">
+        <v>42191000</v>
+      </c>
+      <c r="L60" s="3">
         <v>45521000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46666000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>50442000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2441,17 +2583,20 @@
         <v>6677000</v>
       </c>
       <c r="K61" s="3">
+        <v>6677000</v>
+      </c>
+      <c r="L61" s="3">
         <v>16608000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21789000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22551000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2477,17 +2622,20 @@
         <v>7414000</v>
       </c>
       <c r="K62" s="3">
+        <v>7414000</v>
+      </c>
+      <c r="L62" s="3">
         <v>15891000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20861000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17520000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,9 +2747,12 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2621,17 +2778,20 @@
         <v>79114000</v>
       </c>
       <c r="K66" s="3">
+        <v>79114000</v>
+      </c>
+      <c r="L66" s="3">
         <v>78407000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86332000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90892000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,14 +2959,17 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>17</v>
+      <c r="D72" s="3">
+        <v>-2461000</v>
       </c>
       <c r="E72" s="3">
         <v>-1961000</v>
@@ -2817,17 +2990,20 @@
         <v>32089000</v>
       </c>
       <c r="K72" s="3">
+        <v>32089000</v>
+      </c>
+      <c r="L72" s="3">
         <v>25563000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21521000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>35266000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,9 +3115,12 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2961,17 +3146,20 @@
         <v>27768000</v>
       </c>
       <c r="K76" s="3">
+        <v>27768000</v>
+      </c>
+      <c r="L76" s="3">
         <v>27269000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22436000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38625000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43404</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43039</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42674</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42308</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41943</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41578</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41213</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40847</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6503000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2844000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3152000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5327000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2526000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2496000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4554000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5013000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5113000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12650000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7074000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>785000</v>
+      </c>
+      <c r="E83" s="3">
         <v>789000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>744000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>528000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>354000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>332000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4061000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" s="3">
         <v>5095000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4984000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6409000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4316000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4654000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4528000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3677000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3252000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7026000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12333000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11608000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10571000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12639000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-582000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-580000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-671000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-546000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-402000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-433000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3603000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3853000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3199000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3706000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4539000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1012000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1016000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-438000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-716000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>48000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5534000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" s="3">
         <v>-3453000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13959000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-938000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-997000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-970000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-899000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-894000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-858000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1250000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1184000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1105000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1015000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-844000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,45 +3912,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5962000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2973000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4845000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5643000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1251000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14445000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>808000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M100" s="3">
         <v>-3860000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1566000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3730,55 +3978,61 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>17</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-565000</v>
+      </c>
+      <c r="E102" s="3">
         <v>327000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-629000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>709000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11145000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2300000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2970000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>862000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3258000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2886000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>HPQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43404</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43039</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42674</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42308</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41943</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41578</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41213</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40847</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62983000</v>
+      </c>
+      <c r="E8" s="3">
         <v>63487000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>56639000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>58756000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>58472000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>52056000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>48238000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>51463000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56651000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>112298000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>120357000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>127245000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>50648000</v>
+      </c>
+      <c r="E9" s="3">
         <v>50070000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>46202000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47586000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47803000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>42478000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39240000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>120120000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>130270000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>86380000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>92385000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>97418000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12335000</v>
+      </c>
+      <c r="E10" s="3">
         <v>13417000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10437000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11170000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10669000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9578000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8998000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-68657000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-73619000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25918000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27972000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29827000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,47 +865,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1907000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1478000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1499000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1404000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1190000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1209000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1191000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1298000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3135000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3399000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3254000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,87 +946,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>574000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1975000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>518000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>310000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>388000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>492000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>384000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1491000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>187000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1012000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20346000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1712000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E15" s="3">
         <v>154000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>113000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>116000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>80000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>16000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>102000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>129000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1373000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1784000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1607000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>58307000</v>
+      </c>
+      <c r="E17" s="3">
         <v>55897000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>53217000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>54879000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>54767000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>48688000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44689000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>47543000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52395000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>105167000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>131414000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>117568000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4676000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7590000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3422000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3877000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3705000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3368000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3549000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3920000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4256000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7131000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11057000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9677000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E20" s="3">
         <v>175000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>48000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1112000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-380000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>217000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>485000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-221000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-226000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-195000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-876000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-695000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5580000</v>
+      </c>
+      <c r="E21" s="3">
         <v>8550000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4259000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3509000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3853000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3939000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4366000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7760000</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="3">
         <v>-6838000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13966000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>359000</v>
+      </c>
+      <c r="E22" s="3">
         <v>254000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>239000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>242000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>312000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>309000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>273000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>167000</v>
       </c>
       <c r="K22" s="3">
         <v>167000</v>
       </c>
       <c r="L22" s="3">
+        <v>167000</v>
+      </c>
+      <c r="M22" s="3">
         <v>426000</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4441000</v>
+      </c>
+      <c r="E23" s="3">
         <v>7511000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3231000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2523000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3013000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3276000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3761000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3532000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3863000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6510000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11933000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8982000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1238000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1008000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>387000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-551000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>150000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>750000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1095000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-186000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>939000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1397000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>717000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1908000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3203000</v>
+      </c>
+      <c r="E26" s="3">
         <v>6503000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2844000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3074000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2863000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2526000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2666000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3718000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2924000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5113000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12650000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7074000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3203000</v>
+      </c>
+      <c r="E27" s="3">
         <v>6503000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2844000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3074000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2863000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2526000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2666000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3718000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2924000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5113000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12650000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7074000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,38 +1525,41 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>78000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>2464000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-170000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>836000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>2089000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>17</v>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-175000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-48000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1112000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>380000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-217000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-485000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>221000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>226000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>195000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>876000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>695000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3203000</v>
+      </c>
+      <c r="E33" s="3">
         <v>6503000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2844000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3152000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5327000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2526000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2496000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4554000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5013000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5113000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12650000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7074000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3203000</v>
+      </c>
+      <c r="E35" s="3">
         <v>6503000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2844000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3152000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5327000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2526000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2496000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4554000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5013000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5113000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12650000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7074000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43404</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43039</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42674</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42308</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41943</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41578</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41213</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40847</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,67 +1905,71 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3145000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4299000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4864000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4537000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5166000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6997000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6288000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>7584000</v>
       </c>
       <c r="K41" s="3">
         <v>7584000</v>
       </c>
       <c r="L41" s="3">
+        <v>7584000</v>
+      </c>
+      <c r="M41" s="3">
         <v>12163000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11301000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8043000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="3">
         <v>5000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>274000</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>711000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1149000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>17</v>
@@ -1897,165 +1986,180 @@
       <c r="N42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6891000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8849000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8443000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8939000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8003000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7162000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6609000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>10001000</v>
       </c>
       <c r="K43" s="3">
         <v>10001000</v>
       </c>
       <c r="L43" s="3">
+        <v>10001000</v>
+      </c>
+      <c r="M43" s="3">
         <v>24024000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25506000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>29790000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7595000</v>
+      </c>
+      <c r="E44" s="3">
         <v>7930000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5963000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5734000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6062000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5786000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4484000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>4288000</v>
       </c>
       <c r="K44" s="3">
         <v>4288000</v>
       </c>
       <c r="L44" s="3">
+        <v>4288000</v>
+      </c>
+      <c r="M44" s="3">
         <v>6046000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6317000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7490000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2170000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1087000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1104000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>967000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1445000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1224000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1087000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>32832000</v>
       </c>
       <c r="K45" s="3">
         <v>32832000</v>
       </c>
       <c r="L45" s="3">
+        <v>32832000</v>
+      </c>
+      <c r="M45" s="3">
         <v>8131000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11243000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8860000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19801000</v>
+      </c>
+      <c r="E46" s="3">
         <v>22170000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20648000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20177000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21387000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22318000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18468000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>51787000</v>
       </c>
       <c r="K46" s="3">
         <v>51787000</v>
       </c>
       <c r="L46" s="3">
+        <v>51787000</v>
+      </c>
+      <c r="M46" s="3">
         <v>50364000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>50637000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>51021000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2065,114 +2169,123 @@
       <c r="E47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="3">
         <v>144000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1042000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1793000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1607000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3724000</v>
       </c>
       <c r="K47" s="3">
         <v>3724000</v>
       </c>
       <c r="L47" s="3">
+        <v>3724000</v>
+      </c>
+      <c r="M47" s="3">
         <v>5274000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5924000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5916000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4010000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3738000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3734000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2794000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2198000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1878000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1736000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>10664000</v>
       </c>
       <c r="K48" s="3">
         <v>10664000</v>
       </c>
       <c r="L48" s="3">
+        <v>10664000</v>
+      </c>
+      <c r="M48" s="3">
         <v>11463000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11954000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12292000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10474000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7587000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6920000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7033000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5968000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>5622000</v>
       </c>
       <c r="I49" s="3">
         <v>5622000</v>
       </c>
       <c r="J49" s="3">
-        <v>7694000</v>
+        <v>5622000</v>
       </c>
       <c r="K49" s="3">
         <v>7694000</v>
       </c>
       <c r="L49" s="3">
+        <v>7694000</v>
+      </c>
+      <c r="M49" s="3">
         <v>34293000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40563000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>51344000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4302000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5115000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3379000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3319000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4027000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1302000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1570000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>47923000</v>
       </c>
       <c r="K52" s="3">
         <v>47923000</v>
       </c>
       <c r="L52" s="3">
+        <v>47923000</v>
+      </c>
+      <c r="M52" s="3">
         <v>4282000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4669000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5457000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38587000</v>
+      </c>
+      <c r="E54" s="3">
         <v>38610000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34681000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33467000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34622000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32913000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28987000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>106882000</v>
       </c>
       <c r="K54" s="3">
         <v>106882000</v>
       </c>
       <c r="L54" s="3">
+        <v>106882000</v>
+      </c>
+      <c r="M54" s="3">
         <v>105676000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>108768000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>129517000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15284000</v>
+      </c>
+      <c r="E57" s="3">
         <v>16075000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14704000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14793000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14816000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13279000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11103000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>10194000</v>
       </c>
       <c r="K57" s="3">
         <v>10194000</v>
       </c>
       <c r="L57" s="3">
+        <v>10194000</v>
+      </c>
+      <c r="M57" s="3">
         <v>14019000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13350000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14750000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1106000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>674000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>357000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1463000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1072000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>78000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2233000</v>
       </c>
       <c r="K58" s="3">
         <v>2233000</v>
       </c>
       <c r="L58" s="3">
+        <v>2233000</v>
+      </c>
+      <c r="M58" s="3">
         <v>5979000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6647000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8083000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10651000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11915000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10842000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10143000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8852000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8061000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7627000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>30492000</v>
       </c>
       <c r="K59" s="3">
         <v>30492000</v>
       </c>
       <c r="L59" s="3">
+        <v>30492000</v>
+      </c>
+      <c r="M59" s="3">
         <v>25523000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32509000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27609000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26153000</v>
+      </c>
+      <c r="E60" s="3">
         <v>29096000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26220000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25293000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25131000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22412000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18808000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>42191000</v>
       </c>
       <c r="K60" s="3">
         <v>42191000</v>
       </c>
       <c r="L60" s="3">
+        <v>42191000</v>
+      </c>
+      <c r="M60" s="3">
         <v>45521000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46666000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50442000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10796000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6386000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5543000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4780000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4524000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6747000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6735000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>6677000</v>
       </c>
       <c r="K61" s="3">
         <v>6677000</v>
       </c>
       <c r="L61" s="3">
+        <v>6677000</v>
+      </c>
+      <c r="M61" s="3">
         <v>16608000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21789000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22551000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4556000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4778000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5146000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4587000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5606000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7162000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7333000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>7414000</v>
       </c>
       <c r="K62" s="3">
         <v>7414000</v>
       </c>
       <c r="L62" s="3">
+        <v>7414000</v>
+      </c>
+      <c r="M62" s="3">
         <v>15891000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20861000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17520000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41505000</v>
+      </c>
+      <c r="E66" s="3">
         <v>40260000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36909000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34660000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>35261000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>36321000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32876000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>79114000</v>
       </c>
       <c r="K66" s="3">
         <v>79114000</v>
       </c>
       <c r="L66" s="3">
+        <v>79114000</v>
+      </c>
+      <c r="M66" s="3">
         <v>78407000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86332000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90892000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4413000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2461000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1961000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-818000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-473000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2386000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3498000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>32089000</v>
       </c>
       <c r="K72" s="3">
         <v>32089000</v>
       </c>
       <c r="L72" s="3">
+        <v>32089000</v>
+      </c>
+      <c r="M72" s="3">
         <v>25563000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21521000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>35266000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2918000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1650000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2228000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1193000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-639000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3408000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3889000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>27768000</v>
       </c>
       <c r="K76" s="3">
         <v>27768000</v>
       </c>
       <c r="L76" s="3">
+        <v>27768000</v>
+      </c>
+      <c r="M76" s="3">
         <v>27269000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22436000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38625000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43404</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43039</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42674</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42308</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41943</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41578</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41213</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40847</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3203000</v>
+      </c>
+      <c r="E81" s="3">
         <v>6503000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2844000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3152000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5327000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2526000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2496000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4554000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5013000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5113000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12650000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7074000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>780000</v>
+      </c>
+      <c r="E83" s="3">
         <v>785000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>789000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>744000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>528000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>354000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>332000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4061000</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="3">
         <v>5095000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4984000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4463000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6409000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4316000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4654000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4528000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3677000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3252000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7026000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12333000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11608000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10571000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12639000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-791000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-582000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-580000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-671000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-546000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-402000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-433000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3603000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3853000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3199000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3706000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4539000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3549000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1012000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1016000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-438000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-716000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>48000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5534000</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N94" s="3">
         <v>-3453000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13959000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1037000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-938000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-997000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-970000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-899000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-894000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-858000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1250000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1184000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1105000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1015000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-844000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,48 +4157,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2068000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5962000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2973000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4845000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5643000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1251000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14445000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>808000</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N100" s="3">
         <v>-3860000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1566000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3981,58 +4229,64 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>17</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1154000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-565000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>327000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-629000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>709000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11145000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2300000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2970000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>862000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3258000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2886000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
@@ -1996,7 +1996,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6891000</v>
+        <v>11437000</v>
       </c>
       <c r="E43" s="3">
         <v>8849000</v>
@@ -2038,7 +2038,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7595000</v>
+        <v>15210000</v>
       </c>
       <c r="E44" s="3">
         <v>7930000</v>
@@ -2080,7 +2080,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2170000</v>
+        <v>6601000</v>
       </c>
       <c r="E45" s="3">
         <v>1087000</v>
@@ -2122,7 +2122,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19801000</v>
+        <v>19737000</v>
       </c>
       <c r="E46" s="3">
         <v>22170000</v>
@@ -2206,7 +2206,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4010000</v>
+        <v>6784000</v>
       </c>
       <c r="E48" s="3">
         <v>3738000</v>
@@ -2374,7 +2374,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4302000</v>
+        <v>11745000</v>
       </c>
       <c r="E52" s="3">
         <v>5115000</v>
@@ -2458,7 +2458,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38587000</v>
+        <v>38495000</v>
       </c>
       <c r="E54" s="3">
         <v>38610000</v>
@@ -2536,7 +2536,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15284000</v>
+        <v>15303000</v>
       </c>
       <c r="E57" s="3">
         <v>16075000</v>
@@ -2578,7 +2578,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>218000</v>
+        <v>436000</v>
       </c>
       <c r="E58" s="3">
         <v>1106000</v>
@@ -2620,7 +2620,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10651000</v>
+        <v>21319000</v>
       </c>
       <c r="E59" s="3">
         <v>11915000</v>
@@ -2662,7 +2662,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>26153000</v>
+        <v>26189000</v>
       </c>
       <c r="E60" s="3">
         <v>29096000</v>
@@ -2746,7 +2746,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4556000</v>
+        <v>9091000</v>
       </c>
       <c r="E62" s="3">
         <v>4778000</v>
@@ -2914,7 +2914,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41505000</v>
+        <v>41520000</v>
       </c>
       <c r="E66" s="3">
         <v>40260000</v>
@@ -3310,7 +3310,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2918000</v>
+        <v>-3025000</v>
       </c>
       <c r="E76" s="3">
         <v>-1650000</v>

--- a/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HPQ_YR_FIN.xlsx
@@ -728,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>62983000</v>
+        <v>62910000</v>
       </c>
       <c r="E8" s="3">
         <v>63487000</v>
@@ -770,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>50648000</v>
+        <v>50647000</v>
       </c>
       <c r="E9" s="3">
         <v>50070000</v>
@@ -812,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12335000</v>
+        <v>12263000</v>
       </c>
       <c r="E10" s="3">
         <v>13417000</v>
@@ -872,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1593000</v>
+        <v>1653000</v>
       </c>
       <c r="E12" s="3">
         <v>1907000</v>
@@ -956,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>574000</v>
+        <v>559000</v>
       </c>
       <c r="E14" s="3">
         <v>-1975000</v>
@@ -1055,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>58307000</v>
+        <v>58351000</v>
       </c>
       <c r="E17" s="3">
         <v>55897000</v>
@@ -1097,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>4676000</v>
+        <v>4559000</v>
       </c>
       <c r="E18" s="3">
         <v>7590000</v>
@@ -1199,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5580000</v>
+        <v>5463000</v>
       </c>
       <c r="E21" s="3">
         <v>8550000</v>
@@ -1283,7 +1283,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4441000</v>
+        <v>4324000</v>
       </c>
       <c r="E23" s="3">
         <v>7511000</v>
@@ -1325,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1238000</v>
+        <v>1192000</v>
       </c>
       <c r="E24" s="3">
         <v>1008000</v>
@@ -1409,7 +1409,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3203000</v>
+        <v>3132000</v>
       </c>
       <c r="E26" s="3">
         <v>6503000</v>
@@ -1451,7 +1451,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3203000</v>
+        <v>3132000</v>
       </c>
       <c r="E27" s="3">
         <v>6503000</v>
@@ -1703,7 +1703,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3203000</v>
+        <v>3132000</v>
       </c>
       <c r="E33" s="3">
         <v>6503000</v>
@@ -1787,7 +1787,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3203000</v>
+        <v>3132000</v>
       </c>
       <c r="E35" s="3">
         <v>6503000</v>
@@ -1996,7 +1996,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11437000</v>
+        <v>6891000</v>
       </c>
       <c r="E43" s="3">
         <v>8849000</v>
@@ -2038,7 +2038,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15210000</v>
+        <v>7614000</v>
       </c>
       <c r="E44" s="3">
         <v>7930000</v>
@@ -2080,7 +2080,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6601000</v>
+        <v>2086000</v>
       </c>
       <c r="E45" s="3">
         <v>1087000</v>
@@ -2122,7 +2122,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19737000</v>
+        <v>19736000</v>
       </c>
       <c r="E46" s="3">
         <v>22170000</v>
@@ -2206,7 +2206,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6784000</v>
+        <v>4010000</v>
       </c>
       <c r="E48" s="3">
         <v>3738000</v>
@@ -2248,7 +2248,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10474000</v>
+        <v>12407000</v>
       </c>
       <c r="E49" s="3">
         <v>7587000</v>
@@ -2374,7 +2374,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11745000</v>
+        <v>4274000</v>
       </c>
       <c r="E52" s="3">
         <v>5115000</v>
@@ -2458,7 +2458,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38495000</v>
+        <v>38494000</v>
       </c>
       <c r="E54" s="3">
         <v>38610000</v>
@@ -2578,7 +2578,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>436000</v>
+        <v>218000</v>
       </c>
       <c r="E58" s="3">
         <v>1106000</v>
@@ -2620,7 +2620,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21319000</v>
+        <v>10668000</v>
       </c>
       <c r="E59" s="3">
         <v>11915000</v>
@@ -2746,7 +2746,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9091000</v>
+        <v>4534000</v>
       </c>
       <c r="E62" s="3">
         <v>4778000</v>
@@ -2914,7 +2914,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41520000</v>
+        <v>41519000</v>
       </c>
       <c r="E66" s="3">
         <v>40260000</v>
@@ -3142,7 +3142,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4413000</v>
+        <v>-4492000</v>
       </c>
       <c r="E72" s="3">
         <v>-2461000</v>
@@ -3441,7 +3441,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3203000</v>
+        <v>3132000</v>
       </c>
       <c r="E81" s="3">
         <v>6503000</v>
